--- a/bulk-contract-test.xlsx
+++ b/bulk-contract-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boldbayar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE2DF11-ACBE-1849-A53B-645B72D25D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4958F4E-E2C8-0545-9498-404C02A71E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="20">
   <si>
     <t>E-Geree.mn блокчейн цахим гэрээний системийн 
 баримт бичгийн загвар ашиглан масс гэрээ илгээх загвар</t>
@@ -99,6 +99,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -460,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1099,2302 @@
         <v>10</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>6.3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>5.6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>4.2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>3.5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>2.8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>2.1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>1.4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>0.70000000000000095</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>-0.69999999999999896</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>-1.4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>-2.1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>-2.8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>-3.5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>-4.2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>-5.6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>-6.3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>-7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>-7.7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>-8.4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>-9.1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>-10.5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>-11.2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>-11.9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>-12.6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>-13.3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>-14</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>-14.7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>-15.4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>-16.8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>-17.5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>-18.2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>-20.3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>-21</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>-21.7</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>-22.4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>-23.1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>-23.8</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>-24.5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>-25.2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>-25.9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>-26.6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>-27.3</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>-28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>-28.7</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>-29.4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>-30.1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>-30.8</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>-31.5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>-32.9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>-33.6</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>-35</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>-36.4</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109">
+        <v>-37.1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>-38.5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>-39.9</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>-40.6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>-41.3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>-42</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>-42.7</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>-43.4</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119">
+        <v>-44.1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>-44.8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>-45.5</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>-46.2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>-46.9</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124">
+        <v>-47.6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125">
+        <v>-48.3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>-49</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>-49.7</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>-50.4</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>-51.1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130">
+        <v>-51.8</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131">
+        <v>-52.5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132">
+        <v>-53.2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133">
+        <v>-53.9</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134">
+        <v>-54.6</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <v>-55.3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>-56</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>-56.7</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>-57.4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139">
+        <v>-58.1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140">
+        <v>-58.8</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>-59.5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>-60.2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143">
+        <v>-60.9</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <v>-61.6</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145">
+        <v>-62.3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146">
+        <v>-63</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147">
+        <v>-63.7</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148">
+        <v>-64.400000000000006</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>-65.8</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151">
+        <v>-66.5</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152">
+        <v>-67.2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153">
+        <v>-67.900000000000006</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155">
+        <v>-69.3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <v>-70</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>-70.7</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159">
+        <v>-72.099999999999994</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>-72.8</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>-73.5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162">
+        <v>-74.2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164">
+        <v>-75.599999999999994</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165">
+        <v>-76.3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166">
+        <v>-77</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167">
+        <v>-77.7</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170">
+        <v>-79.8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171">
+        <v>-80.5</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172">
+        <v>-81.2</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>-82.6</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>-83.3</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176">
+        <v>-84</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177">
+        <v>-84.7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>-85.4</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179">
+        <v>-86.1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180">
+        <v>-86.8</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181">
+        <v>-87.5</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>-88.2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183">
+        <v>-88.9</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>-89.6</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185">
+        <v>-90.3</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186">
+        <v>-91</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187">
+        <v>-91.7</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188">
+        <v>-92.4</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189">
+        <v>-93.1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190">
+        <v>-93.8</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191">
+        <v>-94.5</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>-95.2</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>-95.9</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194">
+        <v>-96.6</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195">
+        <v>-97.3</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196">
+        <v>-98</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197">
+        <v>-98.7</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>-99.4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199">
+        <v>-100.1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200">
+        <v>-100.8</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201">
+        <v>-101.5</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202">
+        <v>-102.2</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203">
+        <v>-102.9</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204">
+        <v>-103.6</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205">
+        <v>-104.3</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206">
+        <v>-105</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>-105.7</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>-106.4</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209">
+        <v>-107.1</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1108,6 +3405,45 @@
     <hyperlink ref="B24" r:id="rId3" xr:uid="{1134A131-8C54-FB45-B4FA-788F69FDE4CA}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{5D17A204-77A0-FA41-917B-3C8847ED4548}"/>
     <hyperlink ref="B44" r:id="rId5" xr:uid="{E24FBB54-316C-9549-90BB-18D55320A791}"/>
+    <hyperlink ref="B48" r:id="rId6" xr:uid="{10A9F338-8017-5149-A652-154A4C014FE0}"/>
+    <hyperlink ref="B52" r:id="rId7" xr:uid="{46F72CEC-EC9E-884B-843C-592FFEB8CD75}"/>
+    <hyperlink ref="A1" r:id="rId8" display="btjrglbttlg@gmail.com" xr:uid="{8FEBA113-86BC-A848-9281-2CA627A164C2}"/>
+    <hyperlink ref="B57" r:id="rId9" xr:uid="{6EDA38DD-B124-DE40-B079-6B064F579FD3}"/>
+    <hyperlink ref="B70" r:id="rId10" xr:uid="{C812D0C7-356E-E940-B6A2-4BC4F2A56F00}"/>
+    <hyperlink ref="B83" r:id="rId11" xr:uid="{B3D5D56A-B3C5-414B-B80C-F11B37219F92}"/>
+    <hyperlink ref="B96" r:id="rId12" xr:uid="{E9EAEC16-ED20-B240-B963-84658035F045}"/>
+    <hyperlink ref="B109" r:id="rId13" xr:uid="{9321D6AE-064D-6E44-8E38-097D6C191558}"/>
+    <hyperlink ref="B122" r:id="rId14" xr:uid="{A00E730C-3184-3F40-B87C-4E05592CF33D}"/>
+    <hyperlink ref="B135" r:id="rId15" xr:uid="{AE59BD84-2961-9942-AC9E-62F16D5DB169}"/>
+    <hyperlink ref="B148" r:id="rId16" xr:uid="{6CC88E8E-ADD0-AD45-AB36-0DF7C868436E}"/>
+    <hyperlink ref="B161" r:id="rId17" xr:uid="{65DAC8E2-0A8D-FA48-BCB5-6DBB7FB8BB90}"/>
+    <hyperlink ref="B174" r:id="rId18" xr:uid="{89C0E711-F3C9-1F4C-B666-96DAADFDB820}"/>
+    <hyperlink ref="B187" r:id="rId19" xr:uid="{7C38B578-3330-8E4E-9B59-DDF48237A90C}"/>
+    <hyperlink ref="B200" r:id="rId20" xr:uid="{0ABA657B-8477-1F4C-BDDB-361014BB56F4}"/>
+    <hyperlink ref="B61" r:id="rId21" xr:uid="{87E97057-71B4-5342-83B2-62FD94ABAD0B}"/>
+    <hyperlink ref="B74" r:id="rId22" xr:uid="{071DF348-BFA6-5D4F-83C3-1BC14C23A340}"/>
+    <hyperlink ref="B87" r:id="rId23" xr:uid="{B880ED06-5EF9-904A-B5BD-3B1820AE2BD5}"/>
+    <hyperlink ref="B100" r:id="rId24" xr:uid="{FB5B4349-F546-9A4F-AFF2-C7335BA468EC}"/>
+    <hyperlink ref="B113" r:id="rId25" xr:uid="{FA5C512E-89ED-4742-AA32-FBA7E6D1C97A}"/>
+    <hyperlink ref="B126" r:id="rId26" xr:uid="{6FC8C329-500B-2543-B515-89DC02EA6F8D}"/>
+    <hyperlink ref="B139" r:id="rId27" xr:uid="{257FF8A5-0CBA-DB47-AF44-06EA482E1B05}"/>
+    <hyperlink ref="B152" r:id="rId28" xr:uid="{373C522D-9A1F-154F-9AA5-92755A44982B}"/>
+    <hyperlink ref="B165" r:id="rId29" xr:uid="{0BF2E036-3DB0-2F47-945C-5197FA878CDD}"/>
+    <hyperlink ref="B178" r:id="rId30" xr:uid="{91437759-0925-1241-82F5-AF58ED7C1AF9}"/>
+    <hyperlink ref="B191" r:id="rId31" xr:uid="{0DCFEEC6-2BA5-6847-A00F-0424CC25C088}"/>
+    <hyperlink ref="B204" r:id="rId32" xr:uid="{1B9102C4-172D-8544-8BFE-18B386160327}"/>
+    <hyperlink ref="B65" r:id="rId33" xr:uid="{7109266C-4DB4-DB49-B789-894967F95408}"/>
+    <hyperlink ref="B78" r:id="rId34" xr:uid="{16AFE5DC-6844-2849-B25E-1CA7B03FD78E}"/>
+    <hyperlink ref="B91" r:id="rId35" xr:uid="{2F8A0A7F-69DA-2D4E-AC0D-E0178BA46194}"/>
+    <hyperlink ref="B104" r:id="rId36" xr:uid="{C34E7C98-4022-504D-A7CE-35D04A9E3CD1}"/>
+    <hyperlink ref="B117" r:id="rId37" xr:uid="{FFB9F7F6-FFDE-074B-915D-77D3232C915B}"/>
+    <hyperlink ref="B130" r:id="rId38" xr:uid="{A641E546-4416-FA4B-8214-F2D7F1983481}"/>
+    <hyperlink ref="B143" r:id="rId39" xr:uid="{54A2E019-1A90-DB48-929C-96E995EEE131}"/>
+    <hyperlink ref="B156" r:id="rId40" xr:uid="{66363D98-6388-EA47-8A26-5CC8305BAB7D}"/>
+    <hyperlink ref="B169" r:id="rId41" xr:uid="{75B85865-39C8-E741-9A6E-B5E1BA16EE6C}"/>
+    <hyperlink ref="B182" r:id="rId42" xr:uid="{C93522E2-4F4B-D14F-8566-856FC5D99DFC}"/>
+    <hyperlink ref="B195" r:id="rId43" xr:uid="{CC138208-709D-504B-AF76-2E1C6A929263}"/>
+    <hyperlink ref="B208" r:id="rId44" xr:uid="{456B056D-44DA-3048-ACEB-BB728D7079EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
